--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>515726.6621658595</v>
+        <v>565488.6672442009</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226757</v>
+        <v>8547013.05951393</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883905</v>
+        <v>8506890.903312845</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>165.1725371760944</v>
+      </c>
+      <c r="E2" t="n">
         <v>187.5255871663198</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>88.09081815943064</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>187.5255871663198</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y3" t="n">
-        <v>130.4949840230013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>52.21594625443431</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.70122005611973</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="U5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>49.43901847211719</v>
       </c>
       <c r="T6" t="n">
-        <v>149.7933161434361</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="7">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>52.21594625443444</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.396723986041374</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V8" t="n">
-        <v>10.94521162389787</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>133.6980886148204</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>31.680465309768</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>306.5255887226663</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>98.8690562746698</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414557</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>20.95866062611006</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>119.1865869630687</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>316.3713552875042</v>
+        <v>122.8558035691086</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.817218682479</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>108.028130722525</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>107.0704956909094</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>194.2377928517813</v>
+        <v>267.3172025050092</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>20.95866062611006</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>126.7498226612781</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>113.1061620820482</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>127.6752559270069</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>52.45726733572555</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>28.34128745527237</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2414,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851184</v>
       </c>
       <c r="I24" t="n">
         <v>18.8172186824774</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.978140404250797</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>20.95866062611014</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>219.1834685212296</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>297.8304163214477</v>
       </c>
     </row>
     <row r="27">
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>20.95866062611017</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>280.6069641540619</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>189.2395865667843</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292592</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>54.87175400786782</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>87.93270968653188</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.77200357366399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>253.3848746885041</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>187.1115933738233</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>135.8126782397854</v>
+        <v>47.38664856090095</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>128.8771852996431</v>
+        <v>51.77171992515742</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292592</v>
@@ -3322,13 +3322,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3398,7 +3398,7 @@
         <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
-        <v>190.7165703189239</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U36" t="n">
         <v>225.7871683969286</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>62.69769161018534</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>58.28185552386407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.1834685212301</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>128.59069182046</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>124.4808309317252</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>87.93270968653189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>194.1708171770728</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>58.92805047992164</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.46084344268539</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>53.54735467376835</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>126.5388824951704</v>
       </c>
       <c r="V44" t="n">
-        <v>178.6478431952956</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>127.6752559270063</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>87.62154955555326</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204.4218319897903</v>
+        <v>750.102348665279</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330559</v>
+        <v>750.102348665279</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330559</v>
+        <v>583.2614020227594</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897902</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678492</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058936</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079181</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644751</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123823</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985577</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.102348665279</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262249</v>
+        <v>750.102348665279</v>
       </c>
       <c r="S2" t="n">
-        <v>583.2614020227596</v>
+        <v>750.102348665279</v>
       </c>
       <c r="T2" t="n">
-        <v>583.2614020227596</v>
+        <v>750.102348665279</v>
       </c>
       <c r="U2" t="n">
-        <v>393.8416170062749</v>
+        <v>750.102348665279</v>
       </c>
       <c r="V2" t="n">
-        <v>393.8416170062749</v>
+        <v>750.102348665279</v>
       </c>
       <c r="W2" t="n">
-        <v>393.8416170062749</v>
+        <v>750.102348665279</v>
       </c>
       <c r="X2" t="n">
-        <v>204.4218319897903</v>
+        <v>750.102348665279</v>
       </c>
       <c r="Y2" t="n">
-        <v>204.4218319897903</v>
+        <v>750.102348665279</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024206</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476345</v>
@@ -4430,31 +4430,31 @@
         <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.102348665279</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264275</v>
+        <v>750.102348665279</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810237</v>
+        <v>750.102348665279</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810237</v>
+        <v>583.2614020227594</v>
       </c>
       <c r="U3" t="n">
-        <v>525.6547321810237</v>
+        <v>583.2614020227594</v>
       </c>
       <c r="V3" t="n">
-        <v>336.2349471645391</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="W3" t="n">
-        <v>146.8151621480544</v>
+        <v>204.4218319897902</v>
       </c>
       <c r="X3" t="n">
-        <v>146.8151621480544</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
         <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170709</v>
       </c>
       <c r="N4" t="n">
         <v>66.41847329396325</v>
@@ -4521,19 +4521,19 @@
         <v>67.74542702828974</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>520.5803211678657</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="C5" t="n">
-        <v>331.1605361513809</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="D5" t="n">
-        <v>331.1605361513809</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="E5" t="n">
-        <v>331.1605361513809</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="F5" t="n">
-        <v>141.7407511348962</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G5" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N5" t="n">
         <v>509.4952041123828</v>
@@ -4585,34 +4585,34 @@
         <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R5" t="n">
-        <v>710.0001061843504</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S5" t="n">
-        <v>710.0001061843504</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T5" t="n">
-        <v>710.0001061843504</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="U5" t="n">
-        <v>520.5803211678657</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="V5" t="n">
-        <v>520.5803211678657</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="W5" t="n">
-        <v>520.5803211678657</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="X5" t="n">
-        <v>520.5803211678657</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="Y5" t="n">
-        <v>520.5803211678657</v>
+        <v>393.8416170062749</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.53661367296053</v>
+        <v>342.5288241316384</v>
       </c>
       <c r="C6" t="n">
-        <v>30.53661367296053</v>
+        <v>168.0757948505114</v>
       </c>
       <c r="D6" t="n">
-        <v>30.53661367296053</v>
+        <v>168.0757948505114</v>
       </c>
       <c r="E6" t="n">
-        <v>30.53661367296053</v>
+        <v>168.0757948505114</v>
       </c>
       <c r="F6" t="n">
-        <v>30.53661367296053</v>
+        <v>168.0757948505114</v>
       </c>
       <c r="G6" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="H6" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="J6" t="n">
         <v>15.00204697330559</v>
@@ -4652,7 +4652,7 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M6" t="n">
         <v>338.7690911140243</v>
@@ -4661,37 +4661,37 @@
         <v>512.50005875466</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P6" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652795</v>
+        <v>700.1639461681912</v>
       </c>
       <c r="T6" t="n">
-        <v>598.7959687224147</v>
+        <v>700.1639461681912</v>
       </c>
       <c r="U6" t="n">
-        <v>598.7959687224147</v>
+        <v>700.1639461681912</v>
       </c>
       <c r="V6" t="n">
-        <v>409.37618370593</v>
+        <v>700.1639461681912</v>
       </c>
       <c r="W6" t="n">
-        <v>219.9563986894453</v>
+        <v>700.1639461681912</v>
       </c>
       <c r="X6" t="n">
-        <v>30.53661367296053</v>
+        <v>700.1639461681912</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.53661367296053</v>
+        <v>510.7441611517065</v>
       </c>
     </row>
     <row r="7">
@@ -4731,37 +4731,37 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="W7" t="n">
         <v>15.00204697330559</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>787.4231477430878</v>
+        <v>210.883169349428</v>
       </c>
       <c r="C8" t="n">
-        <v>787.4231477430878</v>
+        <v>210.883169349428</v>
       </c>
       <c r="D8" t="n">
-        <v>429.1574491363373</v>
+        <v>210.883169349428</v>
       </c>
       <c r="E8" t="n">
-        <v>43.36919653809306</v>
+        <v>210.883169349428</v>
       </c>
       <c r="F8" t="n">
-        <v>43.36919653809306</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232727</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020261</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>589.7227393823973</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>400.3029543659127</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.852662567162</v>
+        <v>210.883169349428</v>
       </c>
       <c r="V8" t="n">
-        <v>1903.796893250093</v>
+        <v>210.883169349428</v>
       </c>
       <c r="W8" t="n">
-        <v>1551.028237979979</v>
+        <v>210.883169349428</v>
       </c>
       <c r="X8" t="n">
-        <v>1177.5624797189</v>
+        <v>210.883169349428</v>
       </c>
       <c r="Y8" t="n">
-        <v>787.4231477430878</v>
+        <v>210.883169349428</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>498.0756191779149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333486</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333486</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333486</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U9" t="n">
-        <v>1538.12545746675</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="V9" t="n">
-        <v>1302.973349235008</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W9" t="n">
-        <v>1048.735992506806</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="X9" t="n">
-        <v>840.8844923012732</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y9" t="n">
-        <v>633.1241935363194</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="C10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="D10" t="n">
-        <v>370.1727076282632</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="E10" t="n">
-        <v>222.2596140458701</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="F10" t="n">
-        <v>75.36966654795972</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="G10" t="n">
-        <v>75.36966654795972</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>66.41847329396333</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="R10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="S10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="T10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="U10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="V10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="W10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="X10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828985</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5059,34 +5059,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794326</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2655.939195183548</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>2303.170539913434</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>2303.170539913434</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y11" t="n">
-        <v>2303.170539913434</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="12">
@@ -5096,55 +5096,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
         <v>2435.471302619336</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T13" t="n">
-        <v>899.7166415493874</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U13" t="n">
-        <v>610.613774675031</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V13" t="n">
-        <v>355.9292864691441</v>
+        <v>354.6054449393521</v>
       </c>
       <c r="W13" t="n">
-        <v>66.51211643218345</v>
+        <v>354.6054449393521</v>
       </c>
       <c r="X13" t="n">
-        <v>66.51211643218345</v>
+        <v>354.6054449393521</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V14" t="n">
-        <v>3009.337405520489</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W14" t="n">
-        <v>3009.337405520489</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X14" t="n">
-        <v>3009.337405520489</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y14" t="n">
-        <v>2689.770379977556</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387319</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927795</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064709</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>639.3706644025402</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C16" t="n">
-        <v>470.4344814746333</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D16" t="n">
-        <v>361.3151575124869</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="E16" t="n">
-        <v>213.4020639300938</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962296</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757138</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>639.3706644025402</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>639.3706644025402</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U16" t="n">
-        <v>639.3706644025402</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V16" t="n">
-        <v>639.3706644025402</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W16" t="n">
-        <v>639.3706644025402</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X16" t="n">
-        <v>639.3706644025402</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y16" t="n">
-        <v>639.3706644025402</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1698.509627919561</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C17" t="n">
-        <v>1329.547110979149</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D17" t="n">
-        <v>971.2814123723988</v>
+        <v>1133.303650087721</v>
       </c>
       <c r="E17" t="n">
-        <v>971.2814123723988</v>
+        <v>747.515397489477</v>
       </c>
       <c r="F17" t="n">
-        <v>560.2955075827913</v>
+        <v>336.5294926998694</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794326</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450755</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180641</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919561</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y17" t="n">
-        <v>1698.509627919561</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218345</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218345</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218345</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>899.7166415493874</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U19" t="n">
-        <v>610.613774675031</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V19" t="n">
-        <v>355.9292864691441</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W19" t="n">
-        <v>66.51211643218345</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X19" t="n">
-        <v>66.51211643218345</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218345</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796265</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C20" t="n">
-        <v>552.8079389392149</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D20" t="n">
-        <v>194.5422403324644</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
-        <v>194.5422403324644</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>194.5422403324644</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>194.5422403324644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5752,22 +5752,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.97538618064</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943748</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="21">
@@ -5807,70 +5807,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.4020639300938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>213.4020639300938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>213.4020639300938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218343</v>
@@ -5910,52 +5910,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K22" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O22" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U22" t="n">
-        <v>631.784138943829</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V22" t="n">
-        <v>502.8192339670544</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W22" t="n">
-        <v>213.4020639300938</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X22" t="n">
-        <v>213.4020639300938</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.4020639300938</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1274.539111149741</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C23" t="n">
-        <v>1274.539111149741</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D23" t="n">
-        <v>916.2734125429904</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E23" t="n">
-        <v>530.4851599447461</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F23" t="n">
-        <v>119.4992551551385</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218343</v>
@@ -5992,19 +5992,19 @@
         <v>255.391247391209</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
@@ -6028,13 +6028,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2424.744041450754</v>
+        <v>2396.11647836462</v>
       </c>
       <c r="X23" t="n">
-        <v>2051.278283189674</v>
+        <v>2022.65072010354</v>
       </c>
       <c r="Y23" t="n">
-        <v>1661.138951213863</v>
+        <v>1632.511388127729</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064545</v>
@@ -6089,25 +6089,25 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U24" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>217.4203875707512</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C25" t="n">
-        <v>217.4203875707512</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D25" t="n">
-        <v>217.4203875707512</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F25" t="n">
         <v>66.51211643218343</v>
@@ -6180,19 +6180,19 @@
         <v>920.8870058181855</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181855</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V25" t="n">
-        <v>666.2025176122986</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="W25" t="n">
-        <v>666.2025176122986</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="X25" t="n">
-        <v>438.2129667142813</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.4203875707512</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1698.50962791956</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C26" t="n">
-        <v>1329.547110979148</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D26" t="n">
-        <v>971.2814123723974</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>585.4931597741531</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>585.4931597741531</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.50962791956</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y26" t="n">
-        <v>1698.50962791956</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228008</v>
@@ -6311,10 +6311,10 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N27" t="n">
         <v>1685.951113992584</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K28" t="n">
         <v>176.6457242372933</v>
@@ -6408,28 +6408,28 @@
         <v>920.8870058181855</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T28" t="n">
-        <v>899.7166415493873</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="U28" t="n">
-        <v>610.6137746750309</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V28" t="n">
         <v>355.929286469144</v>
       </c>
       <c r="W28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1678.62132134232</v>
+        <v>1381.278680221569</v>
       </c>
       <c r="C29" t="n">
-        <v>1678.62132134232</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U29" t="n">
-        <v>3159.889138986905</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V29" t="n">
-        <v>2828.826251643334</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W29" t="n">
-        <v>2828.826251643334</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X29" t="n">
-        <v>2455.360493382254</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y29" t="n">
-        <v>2065.221161406442</v>
+        <v>1767.878520285691</v>
       </c>
     </row>
     <row r="30">
@@ -6533,25 +6533,25 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N30" t="n">
         <v>1685.951113992584</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J31" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596507</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O31" t="n">
         <v>809.015235706886</v>
@@ -6651,22 +6651,22 @@
         <v>920.8870058181855</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U31" t="n">
-        <v>631.784138943829</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="V31" t="n">
-        <v>377.0996507379422</v>
+        <v>155.3330353074682</v>
       </c>
       <c r="W31" t="n">
-        <v>377.0996507379422</v>
+        <v>155.3330353074682</v>
       </c>
       <c r="X31" t="n">
-        <v>149.1100998399248</v>
+        <v>155.3330353074682</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074682</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.798686923957</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.836169983545</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D32" t="n">
-        <v>892.5704713767946</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218343</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923659</v>
+        <v>2705.840358542927</v>
       </c>
       <c r="W32" t="n">
-        <v>2182.266054653545</v>
+        <v>2353.071703272813</v>
       </c>
       <c r="X32" t="n">
-        <v>1808.800296392465</v>
+        <v>1979.605945011733</v>
       </c>
       <c r="Y32" t="n">
-        <v>1619.798686923957</v>
+        <v>1589.466613035921</v>
       </c>
     </row>
     <row r="33">
@@ -6797,7 +6797,7 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>666.2025176122986</v>
+        <v>114.3774180088511</v>
       </c>
       <c r="C34" t="n">
-        <v>666.2025176122986</v>
+        <v>114.3774180088511</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
         <v>66.51211643218343</v>
@@ -6891,19 +6891,19 @@
         <v>920.8870058181855</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181855</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V34" t="n">
-        <v>666.2025176122986</v>
+        <v>631.784138943829</v>
       </c>
       <c r="W34" t="n">
-        <v>666.2025176122986</v>
+        <v>342.3669689068684</v>
       </c>
       <c r="X34" t="n">
-        <v>666.2025176122986</v>
+        <v>114.3774180088511</v>
       </c>
       <c r="Y34" t="n">
-        <v>666.2025176122986</v>
+        <v>114.3774180088511</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1808.800296392465</v>
+        <v>2028.499588324621</v>
       </c>
       <c r="C35" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
@@ -6937,10 +6937,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6970,19 +6970,19 @@
         <v>3119.628073993394</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.09759726723</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.034709923659</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W35" t="n">
-        <v>2182.266054653545</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="X35" t="n">
-        <v>1808.800296392465</v>
+        <v>2415.099428388743</v>
       </c>
       <c r="Y35" t="n">
-        <v>1808.800296392465</v>
+        <v>2415.099428388743</v>
       </c>
     </row>
     <row r="36">
@@ -7037,13 +7037,13 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.3679798527295</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="C37" t="n">
-        <v>511.4317969248226</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124869</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
         <v>66.51211643218343</v>
@@ -7125,22 +7125,22 @@
         <v>920.8870058181855</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U37" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181855</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181855</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="X37" t="n">
-        <v>920.8870058181855</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="Y37" t="n">
-        <v>862.0164446829692</v>
+        <v>444.4359021818246</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1477.112184968822</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C38" t="n">
-        <v>1108.149668028411</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="D38" t="n">
-        <v>749.8839694216604</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E38" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F38" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X38" t="n">
         <v>1698.50962791956</v>
       </c>
       <c r="Y38" t="n">
-        <v>1698.50962791956</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218343</v>
+        <v>192.2503294945321</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218343</v>
+        <v>192.2503294945321</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>192.2503294945321</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>832.0660869429007</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>610.2994715124267</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>321.1966046380703</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V40" t="n">
-        <v>66.51211643218343</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W40" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X40" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,19 +7441,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3019.183014573566</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>2765.652537847403</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136266</v>
+        <v>2765.652537847403</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.791869823214</v>
+        <v>2765.652537847403</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y41" t="n">
         <v>2392.186779586323</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7578,43 +7578,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>920.887005818185</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V43" t="n">
-        <v>666.2025176122982</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W43" t="n">
-        <v>376.7853475753375</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="X43" t="n">
-        <v>148.7957966773202</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="Y43" t="n">
-        <v>148.7957966773202</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1278.358723975039</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.358723975039</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.5121164321834</v>
@@ -7675,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410101</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V44" t="n">
-        <v>2781.332309546166</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W44" t="n">
-        <v>2428.563654276052</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>2055.097896014972</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>1664.958564039161</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>342.3669689068678</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C46" t="n">
-        <v>342.3669689068678</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D46" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
         <v>66.5121164321834</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U46" t="n">
-        <v>631.7841389438285</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V46" t="n">
-        <v>631.7841389438285</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="W46" t="n">
-        <v>342.3669689068678</v>
+        <v>155.0187321448635</v>
       </c>
       <c r="X46" t="n">
-        <v>342.3669689068678</v>
+        <v>155.0187321448635</v>
       </c>
       <c r="Y46" t="n">
-        <v>342.3669689068678</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
   </sheetData>
@@ -22549,19 +22549,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>189.5105044445885</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.404782905942</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753917</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637383</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
-        <v>70.68499503062249</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871052</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>30.23706061590684</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310546</v>
+        <v>45.27499998310552</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945998</v>
+        <v>64.16939599459985</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715772</v>
       </c>
       <c r="Y3" t="n">
-        <v>75.18771175430302</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22761,7 +22761,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>234.049135239016</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3687070976605</v>
       </c>
     </row>
     <row r="5">
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,13 +22798,13 @@
         <v>219.3504585753916</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.38049896054405</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>48.27134388011237</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871046</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897338</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>100.3312262188324</v>
       </c>
       <c r="T6" t="n">
-        <v>45.61628164856518</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098455</v>
       </c>
     </row>
     <row r="7">
@@ -22965,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>234.3070520821566</v>
+        <v>234.3070520821567</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,22 +23026,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>400.4793217556701</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>25.91829388988697</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>63.64367339871052</v>
       </c>
       <c r="V8" t="n">
-        <v>316.807046846237</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.83509503504689</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>38.33818124377112</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310546</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.1693959945998</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>40.60044802738298</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23184,28 +23184,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>116.8593460514772</v>
+        <v>101.2177245773851</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>76.2082529408143</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>228.8832021954651</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>198.5902886500591</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>99.39806638902606</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>69.86658336854936</v>
+        <v>263.382135086945</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>40.58734229568739</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>38.35055233202189</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>216.6839328016722</v>
+        <v>143.6045231484443</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>198.5902886500591</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>167.4277998651737</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>167.8579417260424</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>236.1348066353648</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24183,13 +24183,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>124.4623873968211</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>358.4644583177279</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>320.8996812621406</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>142.4558222423184</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24420,19 +24420,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>204.750994762927</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>191.7382571322239</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292592</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>88.40752233460591</v>
       </c>
     </row>
     <row r="27">
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>198.590288650059</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>5.604874051551008</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>217.6364591749272</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,13 +24736,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>196.1234179510342</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>91.89927049540542</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.8126497784308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>74.36738378163082</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>199.1263452822303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>12.80279477842697</v>
+        <v>101.2288244573114</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25131,16 +25131,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>236.3957064713644</v>
+        <v>313.5011718458501</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>83.73627103638383</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,13 +25365,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>160.3027978282307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>163.5503731422505</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>236.6821999505476</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>41.54497732730303</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>101.83631564491</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>9.747152962547375</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>290.3129182374914</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.37113673925191</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25839,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>165.0372986783264</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>124.4562894637316</v>
       </c>
       <c r="V44" t="n">
-        <v>149.1044152748393</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>20.94021709120602</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26076,13 +26076,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>130.9631037965415</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061952</v>
+        <v>424931.0936061949</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061951</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526516</v>
+        <v>424931.0936061951</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="15">
@@ -26319,43 +26319,43 @@
         <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>245340.6184784386</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="E2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="F2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="G2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="H2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="I2" t="n">
         <v>312588.928500312</v>
       </c>
-      <c r="F2" t="n">
-        <v>312588.9285003121</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="K2" t="n">
+        <v>312588.9285003117</v>
+      </c>
+      <c r="L2" t="n">
         <v>312588.9285003118</v>
       </c>
-      <c r="H2" t="n">
-        <v>312588.9285003118</v>
-      </c>
-      <c r="I2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="K2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="L2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="M2" t="n">
-        <v>312588.928500312</v>
-      </c>
       <c r="N2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="O2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.524948766</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669104</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>49064.94472854456</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127035</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608628</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>137.8001180723339</v>
       </c>
       <c r="C4" t="n">
+        <v>137.8001180723339</v>
+      </c>
+      <c r="D4" t="n">
         <v>137.800118072334</v>
       </c>
-      <c r="D4" t="n">
-        <v>384.3219252469135</v>
-      </c>
       <c r="E4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="F4" t="n">
+        <v>584.646989006123</v>
+      </c>
+      <c r="G4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="H4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="I4" t="n">
         <v>584.6469890061234</v>
-      </c>
-      <c r="F4" t="n">
-        <v>584.6469890061235</v>
-      </c>
-      <c r="G4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="H4" t="n">
-        <v>584.6469890061234</v>
-      </c>
-      <c r="I4" t="n">
-        <v>584.6469890061232</v>
       </c>
       <c r="J4" t="n">
         <v>584.6469890061232</v>
@@ -26447,13 +26447,13 @@
         <v>584.6469890061232</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="M4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
         <v>584.6469890061231</v>
@@ -26472,22 +26472,22 @@
         <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
+        <v>56985.80041161356</v>
+      </c>
+      <c r="D5" t="n">
         <v>56985.80041161357</v>
       </c>
-      <c r="D5" t="n">
-        <v>85199.08185587224</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139331</v>
@@ -26496,7 +26496,7 @@
         <v>74306.34056139331</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139331</v>
@@ -26505,7 +26505,7 @@
         <v>74306.34056139331</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-502366.9027456893</v>
+        <v>-491392.2469285581</v>
       </c>
       <c r="C6" t="n">
-        <v>88989.999775156</v>
+        <v>99964.65559228719</v>
       </c>
       <c r="D6" t="n">
-        <v>-219414.6903676095</v>
+        <v>99964.65559228718</v>
       </c>
       <c r="E6" t="n">
-        <v>-42406.8001951674</v>
+        <v>-389844.1022215722</v>
       </c>
       <c r="F6" t="n">
-        <v>233623.9455717429</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="G6" t="n">
-        <v>233623.9455717429</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="H6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="I6" t="n">
-        <v>233623.9455717428</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="J6" t="n">
-        <v>184559.0008431981</v>
+        <v>188225.5966835509</v>
       </c>
       <c r="K6" t="n">
-        <v>233623.9455717429</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="L6" t="n">
-        <v>143880.5674404725</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="M6" t="n">
-        <v>161532.5929556567</v>
+        <v>76834.09954421797</v>
       </c>
       <c r="N6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="O6" t="n">
-        <v>233623.9455717429</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="P6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120953</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
+        <v>548.4699409129045</v>
+      </c>
+      <c r="D3" t="n">
         <v>548.4699409129046</v>
       </c>
-      <c r="D3" t="n">
-        <v>853.710664537684</v>
-      </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593299</v>
@@ -26773,7 +26773,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26792,19 +26792,19 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
@@ -26813,10 +26813,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022929</v>
@@ -26825,10 +26825,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022925</v>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247794</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556145</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598434</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761299</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598435</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761299</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598434</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761299</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31150,7 +31150,7 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936712</v>
       </c>
       <c r="R3" t="n">
         <v>73.24660833550074</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J5" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P5" t="n">
         <v>317.0679923244294</v>
@@ -31314,10 +31314,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U5" t="n">
         <v>0.1763923428061601</v>
@@ -31360,7 +31360,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
         <v>40.6178210959085</v>
@@ -31369,7 +31369,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L6" t="n">
         <v>256.1509851405032</v>
@@ -31378,7 +31378,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O6" t="n">
         <v>280.6872536292673</v>
@@ -31387,19 +31387,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S6" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O7" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905542</v>
@@ -33517,10 +33517,10 @@
         <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905542</v>
@@ -33681,7 +33681,7 @@
         <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563564</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
         <v>99.83230779806954</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905542</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34798,7 +34798,7 @@
         <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764971</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L6" t="n">
         <v>117.596605360629</v>
@@ -35026,16 +35026,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014226</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>250.7943048037196</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M40" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
